--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H2">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I2">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J2">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.160945333333332</v>
+        <v>1.334383666666667</v>
       </c>
       <c r="N2">
-        <v>24.482836</v>
+        <v>4.003151</v>
       </c>
       <c r="O2">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="P2">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="Q2">
-        <v>9.728518755165776</v>
+        <v>0.08602148786622221</v>
       </c>
       <c r="R2">
-        <v>87.55666879649199</v>
+        <v>0.774193390796</v>
       </c>
       <c r="S2">
-        <v>0.137380271387629</v>
+        <v>0.003534371162218317</v>
       </c>
       <c r="T2">
-        <v>0.1373802713876289</v>
+        <v>0.003534371162218317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H3">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I3">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J3">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>2.477462333333333</v>
       </c>
       <c r="N3">
-        <v>7.432387</v>
+        <v>7.432386999999999</v>
       </c>
       <c r="O3">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="P3">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="Q3">
-        <v>2.953339079065444</v>
+        <v>0.1597104351391111</v>
       </c>
       <c r="R3">
-        <v>26.580051711589</v>
+        <v>1.437393916252</v>
       </c>
       <c r="S3">
-        <v>0.04170527234336274</v>
+        <v>0.00656203432727027</v>
       </c>
       <c r="T3">
-        <v>0.04170527234336273</v>
+        <v>0.006562034327270271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H4">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I4">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J4">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.982489999999999</v>
+        <v>6.358226000000001</v>
       </c>
       <c r="N4">
-        <v>17.94747</v>
+        <v>19.074678</v>
       </c>
       <c r="O4">
-        <v>0.3599378396991113</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="P4">
-        <v>0.3599378396991114</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="Q4">
-        <v>7.131620638343332</v>
+        <v>0.4098851584986667</v>
       </c>
       <c r="R4">
-        <v>64.18458574508999</v>
+        <v>3.688966426488001</v>
       </c>
       <c r="S4">
-        <v>0.1007084432261577</v>
+        <v>0.01684098147978934</v>
       </c>
       <c r="T4">
-        <v>0.1007084432261577</v>
+        <v>0.01684098147978934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.531285</v>
       </c>
       <c r="I5">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J5">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.160945333333332</v>
+        <v>1.334383666666667</v>
       </c>
       <c r="N5">
-        <v>24.482836</v>
+        <v>4.003151</v>
       </c>
       <c r="O5">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="P5">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="Q5">
-        <v>15.04683816936222</v>
+        <v>2.460285453226111</v>
       </c>
       <c r="R5">
-        <v>135.42154352426</v>
+        <v>22.142569079035</v>
       </c>
       <c r="S5">
-        <v>0.2124823689253906</v>
+        <v>0.1010859283232887</v>
       </c>
       <c r="T5">
-        <v>0.2124823689253905</v>
+        <v>0.1010859283232887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.531285</v>
       </c>
       <c r="I6">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J6">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>2.477462333333333</v>
       </c>
       <c r="N6">
-        <v>7.432387</v>
+        <v>7.432386999999999</v>
       </c>
       <c r="O6">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="P6">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="Q6">
         <v>4.567850080810556</v>
@@ -818,10 +818,10 @@
         <v>41.110650727295</v>
       </c>
       <c r="S6">
-        <v>0.06450442246683664</v>
+        <v>0.187679590290984</v>
       </c>
       <c r="T6">
-        <v>0.06450442246683663</v>
+        <v>0.187679590290984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.531285</v>
       </c>
       <c r="I7">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J7">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.982489999999999</v>
+        <v>6.358226000000001</v>
       </c>
       <c r="N7">
-        <v>17.94747</v>
+        <v>19.074678</v>
       </c>
       <c r="O7">
-        <v>0.3599378396991113</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="P7">
-        <v>0.3599378396991114</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="Q7">
-        <v>11.03028573321667</v>
+        <v>11.72305336680334</v>
       </c>
       <c r="R7">
-        <v>99.27257159895001</v>
+        <v>105.50748030123</v>
       </c>
       <c r="S7">
-        <v>0.1557630391273862</v>
+        <v>0.4816659509216147</v>
       </c>
       <c r="T7">
-        <v>0.1557630391273862</v>
+        <v>0.4816659509216147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H8">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I8">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J8">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.160945333333332</v>
+        <v>1.334383666666667</v>
       </c>
       <c r="N8">
-        <v>24.482836</v>
+        <v>4.003151</v>
       </c>
       <c r="O8">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="P8">
-        <v>0.491005088714322</v>
+        <v>0.1312069045987744</v>
       </c>
       <c r="Q8">
-        <v>9.994935535887555</v>
+        <v>0.6470795579147778</v>
       </c>
       <c r="R8">
-        <v>89.954419822988</v>
+        <v>5.823716021232999</v>
       </c>
       <c r="S8">
-        <v>0.1411424484013025</v>
+        <v>0.02658660511326734</v>
       </c>
       <c r="T8">
-        <v>0.1411424484013025</v>
+        <v>0.02658660511326734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H9">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I9">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J9">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>2.477462333333333</v>
       </c>
       <c r="N9">
-        <v>7.432387</v>
+        <v>7.432386999999999</v>
       </c>
       <c r="O9">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="P9">
-        <v>0.1490570715865668</v>
+        <v>0.2436032245723858</v>
       </c>
       <c r="Q9">
-        <v>3.034216662757889</v>
+        <v>1.201390028557889</v>
       </c>
       <c r="R9">
-        <v>27.307949964821</v>
+        <v>10.812510257021</v>
       </c>
       <c r="S9">
-        <v>0.04284737677636738</v>
+        <v>0.04936159995413154</v>
       </c>
       <c r="T9">
-        <v>0.04284737677636738</v>
+        <v>0.04936159995413156</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H10">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I10">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J10">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.982489999999999</v>
+        <v>6.358226000000001</v>
       </c>
       <c r="N10">
-        <v>17.94747</v>
+        <v>19.074678</v>
       </c>
       <c r="O10">
-        <v>0.3599378396991113</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="P10">
-        <v>0.3599378396991114</v>
+        <v>0.6251898708288398</v>
       </c>
       <c r="Q10">
-        <v>7.326921018556666</v>
+        <v>3.083279698319334</v>
       </c>
       <c r="R10">
-        <v>65.94228916701</v>
+        <v>27.749517284874</v>
       </c>
       <c r="S10">
-        <v>0.1034663573455675</v>
+        <v>0.1266829384274358</v>
       </c>
       <c r="T10">
-        <v>0.1034663573455675</v>
+        <v>0.1266829384274358</v>
       </c>
     </row>
   </sheetData>
